--- a/Projects/CCRU_SAND/Data/Cooler_Quality.xlsx
+++ b/Projects/CCRU_SAND/Data/Cooler_Quality.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,6 +17,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">ALL!$A$1:$AL$5</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">ALL!$A$1:$AL$5</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">ALL!$A$1:$AL$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">ALL!$A$1:$AL$5</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -147,7 +148,7 @@
     <t xml:space="preserve">GROUP 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Cooler: Max 26</t>
+    <t xml:space="preserve">Cooler: Max 26 new</t>
   </si>
   <si>
     <t xml:space="preserve">ХО: Максимум 26 СКЮ на дверь</t>
@@ -162,7 +163,7 @@
     <t xml:space="preserve">TCCC</t>
   </si>
   <si>
-    <t xml:space="preserve">Cooler: Merch Priorty STD every SKUs min 2 facing</t>
+    <t xml:space="preserve">Cooler: Merch Priorty STD every SKUs min 2 facing new</t>
   </si>
   <si>
     <t xml:space="preserve">Холодильники: Мерч. Стандарты. Каждое SKU min 2 facing</t>
@@ -174,7 +175,7 @@
     <t xml:space="preserve">BINARY</t>
   </si>
   <si>
-    <t xml:space="preserve">Cooler: w/o other products</t>
+    <t xml:space="preserve">Cooler: w/o other products new</t>
   </si>
   <si>
     <t xml:space="preserve">Холодильники: Без чужой продукции</t>
@@ -183,7 +184,7 @@
     <t xml:space="preserve">Share of CCH doors which have 98% TCCC facings</t>
   </si>
   <si>
-    <t xml:space="preserve">Cooler: w/o FC packs</t>
+    <t xml:space="preserve">Cooler: w/o FC packs new</t>
   </si>
   <si>
     <t xml:space="preserve">Холодильники: Без FC упаковок</t>
@@ -685,10 +686,10 @@
   </sheetPr>
   <dimension ref="A1:AL65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -699,38 +700,38 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.35627530364373"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="55.914979757085"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="47.7732793522267"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="51.417004048583"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="56.3441295546559"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="48.2024291497976"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="51.8461538461539"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.5668016194332"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.5344129554656"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.3198380566802"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="7.39271255060729"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="6.53441295546559"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="23" min="23" style="0" width="6.63967611336032"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="0" width="8.35627530364373"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="12.4251012145749"/>
     <col collapsed="false" hidden="false" max="1025" min="39" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1182,13 +1183,13 @@
   </sheetPr>
   <dimension ref="A1:B103"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.8502024291498"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>

--- a/Projects/CCRU_SAND/Data/Cooler_Quality.xlsx
+++ b/Projects/CCRU_SAND/Data/Cooler_Quality.xlsx
@@ -18,6 +18,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">ALL!$A$1:$AL$5</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">ALL!$A$1:$AL$5</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">ALL!$A$1:$AL$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">ALL!$A$1:$AL$5</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="159">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -161,6 +162,9 @@
   </si>
   <si>
     <t xml:space="preserve">TCCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler</t>
   </si>
   <si>
     <t xml:space="preserve">Cooler: Merch Priorty STD every SKUs min 2 facing new</t>
@@ -689,7 +693,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -700,38 +704,38 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.35627530364373"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="56.3441295546559"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="48.2024291497976"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="51.8461538461539"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.1093117408907"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="48.6315789473684"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="52.2753036437247"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.6396761133603"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="6.53441295546559"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="20.246963562753"/>
     <col collapsed="false" hidden="false" max="23" min="23" style="0" width="6.63967611336032"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="0" width="8.35627530364373"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="14.8906882591093"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="12.5344129554656"/>
     <col collapsed="false" hidden="false" max="1025" min="39" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -899,8 +903,10 @@
       <c r="AB2" s="3"/>
       <c r="AD2" s="3"/>
       <c r="AE2" s="3"/>
-      <c r="AH2" s="3"/>
       <c r="AI2" s="3"/>
+      <c r="AK2" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -919,25 +925,28 @@
         <v>0.25</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S3" s="0" t="s">
         <v>42</v>
       </c>
       <c r="T3" s="0" t="s">
         <v>43</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -958,19 +967,22 @@
         <v>0.25</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S4" s="0" t="s">
         <v>42</v>
       </c>
       <c r="T4" s="0" t="s">
         <v>43</v>
+      </c>
+      <c r="AK4" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -990,19 +1002,22 @@
         <v>0.25</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S5" s="0" t="s">
         <v>42</v>
       </c>
       <c r="T5" s="0" t="s">
         <v>43</v>
+      </c>
+      <c r="AK5" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1010,7 +1025,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>2</v>
@@ -1055,13 +1070,16 @@
       <c r="AE6" s="3"/>
       <c r="AH6" s="3"/>
       <c r="AI6" s="3"/>
+      <c r="AK6" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>2</v>
@@ -1073,25 +1091,28 @@
         <v>0.25</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L7" s="0" t="n">
         <v>2</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S7" s="0" t="s">
         <v>42</v>
       </c>
       <c r="T7" s="0" t="s">
         <v>43</v>
+      </c>
+      <c r="AK7" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1099,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>2</v>
@@ -1112,19 +1133,22 @@
         <v>0.25</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S8" s="0" t="s">
         <v>42</v>
       </c>
       <c r="T8" s="0" t="s">
         <v>43</v>
+      </c>
+      <c r="AK8" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1132,7 +1156,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>2</v>
@@ -1144,19 +1168,22 @@
         <v>0.25</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S9" s="0" t="s">
         <v>42</v>
       </c>
       <c r="T9" s="0" t="s">
         <v>43</v>
+      </c>
+      <c r="AK9" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1189,7 +1216,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.0647773279352"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
@@ -1199,12 +1226,12 @@
         <v>1</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>38</v>
@@ -1212,7 +1239,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>38</v>
@@ -1220,7 +1247,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>38</v>
@@ -1228,7 +1255,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>38</v>
@@ -1236,7 +1263,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>38</v>
@@ -1244,7 +1271,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>38</v>
@@ -1252,7 +1279,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>38</v>
@@ -1260,7 +1287,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>38</v>
@@ -1268,7 +1295,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>38</v>
@@ -1276,7 +1303,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>38</v>
@@ -1284,7 +1311,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>38</v>
@@ -1292,7 +1319,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>38</v>
@@ -1300,7 +1327,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>38</v>
@@ -1308,7 +1335,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>38</v>
@@ -1316,7 +1343,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>38</v>
@@ -1324,7 +1351,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>38</v>
@@ -1332,7 +1359,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>38</v>
@@ -1340,7 +1367,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>38</v>
@@ -1348,7 +1375,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>38</v>
@@ -1356,7 +1383,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>38</v>
@@ -1364,7 +1391,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>38</v>
@@ -1372,7 +1399,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>38</v>
@@ -1380,7 +1407,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>38</v>
@@ -1388,7 +1415,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>38</v>
@@ -1396,7 +1423,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>38</v>
@@ -1404,7 +1431,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>38</v>
@@ -1412,7 +1439,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>38</v>
@@ -1420,7 +1447,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>38</v>
@@ -1428,7 +1455,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>38</v>
@@ -1436,7 +1463,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>38</v>
@@ -1444,7 +1471,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>38</v>
@@ -1452,7 +1479,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>38</v>
@@ -1460,7 +1487,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>38</v>
@@ -1468,7 +1495,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>38</v>
@@ -1476,7 +1503,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>38</v>
@@ -1484,7 +1511,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>38</v>
@@ -1492,7 +1519,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>38</v>
@@ -1500,7 +1527,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>38</v>
@@ -1508,7 +1535,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>38</v>
@@ -1516,7 +1543,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>38</v>
@@ -1524,7 +1551,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>38</v>
@@ -1532,7 +1559,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>38</v>
@@ -1540,7 +1567,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>38</v>
@@ -1548,7 +1575,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>38</v>
@@ -1556,466 +1583,466 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
